--- a/biology/Botanique/Sycopsis/Sycopsis.xlsx
+++ b/biology/Botanique/Sycopsis/Sycopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sycopsis est un genre composé de quelques espèces de plantes à fleurs de la famille des Hamamélidacées, originaire d'Asie, Chine et Inde.
 Nom chinois : 水丝梨属
@@ -512,7 +524,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sycopsis sont des arbustes au feuillage persistant à floraison hivernale ou du début du printemps.
 Les fleurs sont apétales. Elles comptent cinq à six sépales et cinq à dix étamines. Leur gynécées sont en grande partie supère.
@@ -546,7 +560,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Sycopsis sont originaires d'Asie tempérée : principalement de Chine, mais aussi du nord de l'Inde.
 Elles croissent en zones montagneuses ou semi-montagneuses, principalement en milieu forestier, au sein d'espèces persistantes.
@@ -579,7 +595,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La liste des espèces est issue des index IPNI (The International Plant Names Index), du jardin botanique du Missouri (Tropicos) et The Plant List à la date de février 2013, avec une recherche bibliographique sur la bibliothèque numérique Biodiversity Heritage Library. Les espèces conservées dans le genre sont en caractère gras :
 Sycopsis chungii F.P.Metcalf (1931) : voir Distylium chungii (Metcalfe) W.C.Cheng
@@ -624,10 +642,12 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1860, Daniel Oliver décrit ce genre à partir d'un échantillon collecté par William Griffith en Inde[2]. Cet échantillon, espèce-type du genre, a été dédié à son collecteur : Sycopsis griffithiana.
-En 1970, Peter K. Endress, en créant le genre Distyliopsis, y déplace la majorité des espèces existant dans le genre Sycopsis[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1860, Daniel Oliver décrit ce genre à partir d'un échantillon collecté par William Griffith en Inde. Cet échantillon, espèce-type du genre, a été dédié à son collecteur : Sycopsis griffithiana.
+En 1970, Peter K. Endress, en créant le genre Distyliopsis, y déplace la majorité des espèces existant dans le genre Sycopsis.
 Ce genre est réorganisé en 1973 en deux sous-genres par Hung-Ta Chang :
 Sycopsis lui-même décomposé en deux sections : Brevitubus et Longitubus
 Metasycopsis
